--- a/itcast_health/health_parent/health_backend/src/main/webapp/template/report_template.xlsx
+++ b/itcast_health/health_parent/health_backend/src/main/webapp/template/report_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4656293-D54E-415D-BB22-0B7A07310F86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,14 +88,18 @@
   </si>
   <si>
     <t>热门套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,11 +287,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -332,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,9 +373,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,6 +425,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,23 +618,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" width="8.875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="30" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:11" ht="77.400000000000006" customHeight="1">
+    <row r="2" spans="5:11" ht="77.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
@@ -597,7 +642,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="5:11" ht="20.399999999999999">
+    <row r="3" spans="5:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,15 +650,15 @@
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="5:11" ht="28.2">
+    <row r="4" spans="5:11" ht="27" x14ac:dyDescent="0.15">
       <c r="E4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="5:11" ht="20.399999999999999">
+    <row r="5" spans="5:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
@@ -624,7 +669,7 @@
       <c r="H5" s="4"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="5:11" ht="20.399999999999999">
+    <row r="6" spans="5:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
@@ -634,7 +679,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="5:11" ht="28.2">
+    <row r="7" spans="5:11" ht="27" x14ac:dyDescent="0.15">
       <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
@@ -642,7 +687,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="5:11" ht="20.399999999999999">
+    <row r="8" spans="5:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
@@ -652,7 +697,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="5:11" ht="20.399999999999999">
+    <row r="9" spans="5:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
@@ -662,7 +707,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="5:11" ht="20.399999999999999">
+    <row r="10" spans="5:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
@@ -672,15 +717,15 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="5:11" ht="28.2">
+    <row r="11" spans="5:11" ht="27" x14ac:dyDescent="0.15">
       <c r="E11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="5:11" ht="20.399999999999999">
+    <row r="12" spans="5:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
@@ -688,31 +733,31 @@
         <v>14</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="5:11" ht="20.399999999999999">
+    </row>
+    <row r="13" spans="5:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="5:11" ht="20.399999999999999">
+    <row r="14" spans="5:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="5:11" ht="20.399999999999999">
+    <row r="15" spans="5:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="5:11" ht="20.399999999999999">
+    <row r="16" spans="5:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -733,12 +778,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -747,12 +792,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
